--- a/test-files/lastInternalVersion.xml.xlsx
+++ b/test-files/lastInternalVersion.xml.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/MM/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/MM/dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -55,10 +55,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
